--- a/data/outputs/能源化工元源数据文件_elsevier/17CHINESE JOURNAL OF CHEMICAL ENGINEERING.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/17CHINESE JOURNAL OF CHEMICAL ENGINEERING.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS280"/>
+  <dimension ref="A1:BU280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84949661513</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>494</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84962300167</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>929</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1375,6 +1397,12 @@
           <t>2-s2.0-84949519236</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>433</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84949883101</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>346</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1805,6 +1839,12 @@
           <t>2-s2.0-84950272421</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>222</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2020,6 +2060,12 @@
           <t>2-s2.0-84949642627</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>245</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2235,6 +2281,12 @@
           <t>2-s2.0-84962263909</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>439</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2450,6 +2502,12 @@
           <t>2-s2.0-84962262131</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>190</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2665,6 +2723,12 @@
           <t>2-s2.0-84949870490</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>810</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2880,6 +2944,12 @@
           <t>2-s2.0-84949518867</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>512</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3103,6 +3173,12 @@
           <t>2-s2.0-84949677567</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>415</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3318,6 +3394,12 @@
           <t>2-s2.0-84949658724</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>195</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3533,6 +3615,12 @@
           <t>2-s2.0-84949818830</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>288</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3748,6 +3836,12 @@
           <t>2-s2.0-84949672935</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>496</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3959,6 +4053,12 @@
           <t>2-s2.0-84962273843</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>853</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4177,6 +4277,12 @@
         <is>
           <t>2-s2.0-84962217471</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>312</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4385,6 +4491,12 @@
           <t>2-s2.0-84962266956</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>810</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4596,6 +4708,12 @@
           <t>2-s2.0-84949657517</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>615</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4811,6 +4929,12 @@
           <t>2-s2.0-84949883450</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>475</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5029,6 +5153,12 @@
         <is>
           <t>2-s2.0-84977939754</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>735</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -5237,6 +5367,12 @@
           <t>2-s2.0-84962279278</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>386</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5460,6 +5596,12 @@
           <t>2-s2.0-84955560046</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>444</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5675,6 +5817,12 @@
           <t>2-s2.0-84955563518</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>828</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5890,6 +6038,12 @@
           <t>2-s2.0-84955694077</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>377</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6105,6 +6259,12 @@
           <t>2-s2.0-84955652431</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>451</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6320,6 +6480,12 @@
           <t>2-s2.0-84955660640</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>792</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6535,6 +6701,12 @@
           <t>2-s2.0-84955570096</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>253</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6754,6 +6926,12 @@
           <t>2-s2.0-84955714767</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>433</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6969,6 +7147,12 @@
           <t>2-s2.0-84955588168</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>602</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7184,6 +7368,12 @@
           <t>2-s2.0-84955695470</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>624</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7407,6 +7597,12 @@
           <t>2-s2.0-84955692869</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>745</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7626,6 +7822,12 @@
           <t>2-s2.0-84955583903</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>634</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7841,6 +8043,12 @@
           <t>2-s2.0-84955732593</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>715</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8064,6 +8272,12 @@
           <t>2-s2.0-84944766107</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8287,6 +8501,12 @@
           <t>2-s2.0-84955671797</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>340</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8502,6 +8722,12 @@
           <t>2-s2.0-84955746524</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>437</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8717,6 +8943,12 @@
           <t>2-s2.0-84955668419</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>610</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8936,6 +9168,12 @@
           <t>2-s2.0-84955620527</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>490</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9151,6 +9389,12 @@
           <t>2-s2.0-84955664562</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>424</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9374,6 +9618,12 @@
           <t>2-s2.0-84955737389</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>971</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9596,6 +9846,12 @@
         <is>
           <t>2-s2.0-84955758145</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>488</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -9803,6 +10059,12 @@
         <is>
           <t>2-s2.0-84955668530</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>311</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -9999,6 +10261,12 @@
           <t>2-s2.0-84955583394</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>422</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10214,6 +10482,12 @@
           <t>2-s2.0-84955572150</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>343</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10429,6 +10703,12 @@
           <t>2-s2.0-84955619262</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>544</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10644,6 +10924,12 @@
           <t>2-s2.0-84947775885</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>680</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10859,6 +11145,12 @@
           <t>2-s2.0-84947865291</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1393</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11069,6 +11361,12 @@
         <is>
           <t>2-s2.0-84947870701</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>715</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -11277,6 +11575,12 @@
           <t>2-s2.0-84947869997</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11492,6 +11796,12 @@
           <t>2-s2.0-84947754088</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>495</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11707,6 +12017,12 @@
           <t>2-s2.0-84947756197</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>542</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11922,6 +12238,12 @@
           <t>2-s2.0-84947811064</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>878</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12137,6 +12459,12 @@
           <t>2-s2.0-84947710670</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>372</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12352,6 +12680,12 @@
           <t>2-s2.0-84947863980</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>303</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12567,6 +12901,12 @@
           <t>2-s2.0-84947868861</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1025</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12786,6 +13126,12 @@
           <t>2-s2.0-84947865415</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1197</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13001,6 +13347,12 @@
           <t>2-s2.0-84947865250</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>689</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13216,6 +13568,12 @@
           <t>2-s2.0-84947864457</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>343</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13431,6 +13789,12 @@
           <t>2-s2.0-84947863325</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>313</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13654,6 +14018,12 @@
           <t>2-s2.0-84947714079</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>235</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13877,6 +14247,12 @@
           <t>2-s2.0-84947808158</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>911</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14100,6 +14476,12 @@
           <t>2-s2.0-84947706451</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1169</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14323,6 +14705,12 @@
           <t>2-s2.0-84947730473</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>953</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14538,6 +14926,12 @@
           <t>2-s2.0-84947863650</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>416</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14753,6 +15147,12 @@
           <t>2-s2.0-84947756474</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>534</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14964,6 +15364,12 @@
           <t>2-s2.0-84947868081</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>599</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15186,6 +15592,12 @@
         <is>
           <t>2-s2.0-84947747851</t>
         </is>
+      </c>
+      <c r="BT68" t="n">
+        <v>973</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -15394,6 +15806,12 @@
           <t>2-s2.0-84947742251</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>646</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15621,6 +16039,12 @@
           <t>2-s2.0-84945474235</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>760</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15836,6 +16260,12 @@
           <t>2-s2.0-84945478518</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>423</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16051,6 +16481,12 @@
           <t>2-s2.0-84945449148</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>853</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16266,6 +16702,12 @@
           <t>2-s2.0-84945475939</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>813</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16481,6 +16923,12 @@
           <t>2-s2.0-84945496525</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>418</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16696,6 +17144,12 @@
           <t>2-s2.0-84945486006</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>843</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16913,6 +17367,12 @@
           <t>2-s2.0-84944742777</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1239</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17128,6 +17588,12 @@
           <t>2-s2.0-84945464767</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>719</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17351,6 +17817,12 @@
           <t>2-s2.0-84945448652</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>621</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17574,6 +18046,12 @@
           <t>2-s2.0-84937581427</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>568</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17789,6 +18267,12 @@
           <t>2-s2.0-84934940390</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>506</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18004,6 +18488,12 @@
           <t>2-s2.0-84945450767</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1207</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18219,6 +18709,12 @@
           <t>2-s2.0-84945460041</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>421</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18434,6 +18930,12 @@
           <t>2-s2.0-84945477182</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>912</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18649,6 +19151,12 @@
           <t>2-s2.0-84944745737</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>371</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18864,6 +19372,12 @@
           <t>2-s2.0-84945450069</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1741</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19079,6 +19593,12 @@
           <t>2-s2.0-84945490406</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>819</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19294,6 +19814,12 @@
           <t>2-s2.0-84945447024</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>944</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19509,6 +20035,12 @@
           <t>2-s2.0-84945481996</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>511</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19724,6 +20256,12 @@
           <t>2-s2.0-84945490222</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>559</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19939,6 +20477,12 @@
           <t>2-s2.0-84942199928</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>548</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20153,6 +20697,12 @@
         <is>
           <t>2-s2.0-84942200138</t>
         </is>
+      </c>
+      <c r="BT91" t="n">
+        <v>931</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -20361,6 +20911,12 @@
           <t>2-s2.0-84942191289</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>735</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20576,6 +21132,12 @@
           <t>2-s2.0-84942197326</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>830</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20799,6 +21361,12 @@
           <t>2-s2.0-84942193363</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>538</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21022,6 +21590,12 @@
           <t>2-s2.0-84942191304</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1293</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21236,6 +21810,12 @@
         <is>
           <t>2-s2.0-84942200069</t>
         </is>
+      </c>
+      <c r="BT96" t="n">
+        <v>689</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -21444,6 +22024,12 @@
           <t>2-s2.0-84942195987</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1805</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21666,6 +22252,12 @@
         <is>
           <t>2-s2.0-84942193981</t>
         </is>
+      </c>
+      <c r="BT98" t="n">
+        <v>1679</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -21874,6 +22466,12 @@
           <t>2-s2.0-84942199284</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>1185</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22081,6 +22679,12 @@
           <t>2-s2.0-84942194667</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>1173</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22295,6 +22899,12 @@
         <is>
           <t>2-s2.0-84942198374</t>
         </is>
+      </c>
+      <c r="BT101" t="n">
+        <v>493</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -22503,6 +23113,12 @@
           <t>2-s2.0-84942198415</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>454</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22718,6 +23334,12 @@
           <t>2-s2.0-84942194382</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>485</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22933,6 +23555,12 @@
           <t>2-s2.0-84942192880</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>294</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23148,6 +23776,12 @@
           <t>2-s2.0-84942195273</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>551</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23363,6 +23997,12 @@
           <t>2-s2.0-84942196932</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>348</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23578,6 +24218,12 @@
           <t>2-s2.0-84942193956</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>819</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23793,6 +24439,12 @@
           <t>2-s2.0-84942195801</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>410</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24008,6 +24660,12 @@
           <t>2-s2.0-84942191226</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>438</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24223,6 +24881,12 @@
           <t>2-s2.0-84942193867</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>882</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24438,6 +25102,12 @@
           <t>2-s2.0-84942194308</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>458</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24653,6 +25323,12 @@
           <t>2-s2.0-84942192739</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>690</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24876,6 +25552,12 @@
           <t>2-s2.0-84938422374</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>617</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25091,6 +25773,12 @@
           <t>2-s2.0-84929636245</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>558</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25306,6 +25994,12 @@
           <t>2-s2.0-84938415443</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>938</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25529,6 +26223,12 @@
           <t>2-s2.0-84938415729</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>2104</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25744,6 +26444,12 @@
           <t>2-s2.0-84938414213</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>564</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25967,6 +26673,12 @@
           <t>2-s2.0-84938419324</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>1054</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26182,6 +26894,12 @@
           <t>2-s2.0-84938325656</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>712</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26397,6 +27115,12 @@
           <t>2-s2.0-84938347116</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>767</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26612,6 +27336,12 @@
           <t>2-s2.0-84938419228</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>417</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26827,6 +27557,12 @@
           <t>2-s2.0-84938423237</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>701</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27042,6 +27778,12 @@
           <t>2-s2.0-84938415553</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>290</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27257,6 +27999,12 @@
           <t>2-s2.0-84938417191</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>387</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27472,6 +28220,12 @@
           <t>2-s2.0-84938420394</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>439</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27695,6 +28449,12 @@
           <t>2-s2.0-84938419196</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>547</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27910,6 +28670,12 @@
           <t>2-s2.0-84938421574</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>457</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28133,6 +28899,12 @@
           <t>2-s2.0-84938418495</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>413</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28348,6 +29120,12 @@
           <t>2-s2.0-84938421929</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>774</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28563,6 +29341,12 @@
           <t>2-s2.0-84938415554</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>670</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28778,6 +29562,12 @@
           <t>2-s2.0-84938420841</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -29001,6 +29791,12 @@
           <t>2-s2.0-84938423253</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>1251</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29220,6 +30016,12 @@
           <t>2-s2.0-84938418756</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29443,6 +30245,12 @@
           <t>2-s2.0-84938423665</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>672</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29658,6 +30466,12 @@
           <t>2-s2.0-84938423659</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>972</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29873,6 +30687,12 @@
           <t>2-s2.0-84938417697</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>455</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30088,6 +30908,12 @@
           <t>2-s2.0-84931089859</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>531</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30303,6 +31129,12 @@
           <t>2-s2.0-84931566240</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>774</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30518,6 +31350,12 @@
           <t>2-s2.0-84931560254</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>908</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30732,6 +31570,12 @@
         <is>
           <t>2-s2.0-84931575117</t>
         </is>
+      </c>
+      <c r="BT140" t="n">
+        <v>272</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -30940,6 +31784,12 @@
           <t>2-s2.0-84931049677</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>450</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31155,6 +32005,12 @@
           <t>2-s2.0-84931069526</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>949</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31370,6 +32226,12 @@
           <t>2-s2.0-84931045452</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>580</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31585,6 +32447,12 @@
           <t>2-s2.0-84931045492</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>948</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31800,6 +32668,12 @@
           <t>2-s2.0-84931563515</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>717</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -32006,6 +32880,12 @@
         <is>
           <t>2-s2.0-84931045447</t>
         </is>
+      </c>
+      <c r="BT146" t="n">
+        <v>475</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -32214,6 +33094,12 @@
           <t>2-s2.0-84931066042</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>321</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32428,6 +33314,12 @@
         <is>
           <t>2-s2.0-84931085037</t>
         </is>
+      </c>
+      <c r="BT148" t="n">
+        <v>344</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -32640,6 +33532,12 @@
           <t>2-s2.0-84931035242</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>470</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32855,6 +33753,12 @@
           <t>2-s2.0-84931559902</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>551</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33070,6 +33974,12 @@
           <t>2-s2.0-84931566245</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>733</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33284,6 +34194,12 @@
         <is>
           <t>2-s2.0-84931061764</t>
         </is>
+      </c>
+      <c r="BT152" t="n">
+        <v>1037</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="153">
@@ -33492,6 +34408,12 @@
           <t>2-s2.0-84931059770</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>333</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33707,6 +34629,12 @@
           <t>2-s2.0-84931563716</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>393</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33922,6 +34850,12 @@
           <t>2-s2.0-84931024080</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>893</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34137,6 +35071,12 @@
           <t>2-s2.0-84931091611</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>819</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34360,6 +35300,12 @@
           <t>2-s2.0-84931029033</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>570</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34575,6 +35521,12 @@
           <t>2-s2.0-84931573060</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>548</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34790,6 +35742,12 @@
           <t>2-s2.0-84931048865</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>989</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -35013,6 +35971,12 @@
           <t>2-s2.0-84931565678</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>2190</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35228,6 +36192,12 @@
           <t>2-s2.0-84931084060</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>1153</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35443,6 +36413,12 @@
           <t>2-s2.0-84931072648</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>603</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35657,6 +36633,12 @@
         <is>
           <t>2-s2.0-84931077819</t>
         </is>
+      </c>
+      <c r="BT163" t="n">
+        <v>671</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -35865,6 +36847,12 @@
           <t>2-s2.0-84931025749</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>1256</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -36079,6 +37067,12 @@
         <is>
           <t>2-s2.0-84931053607</t>
         </is>
+      </c>
+      <c r="BT165" t="n">
+        <v>420</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -36287,6 +37281,12 @@
           <t>2-s2.0-84931568753</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>349</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36502,6 +37502,12 @@
           <t>2-s2.0-84931074933</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>1091</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36717,6 +37723,12 @@
           <t>2-s2.0-84931046426</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>759</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36936,6 +37948,12 @@
           <t>2-s2.0-84931092642</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>366</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37151,6 +38169,12 @@
           <t>2-s2.0-84931080350</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>441</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37366,6 +38390,12 @@
           <t>2-s2.0-84931030391</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>1152</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37581,6 +38611,12 @@
           <t>2-s2.0-84930185469</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>540</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37796,6 +38832,12 @@
           <t>2-s2.0-84931077744</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -38011,6 +39053,12 @@
           <t>2-s2.0-84931085295</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>1661</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38234,6 +39282,12 @@
           <t>2-s2.0-84931041631</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>953</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38449,6 +39503,12 @@
           <t>2-s2.0-84931034718</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>1089</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38672,6 +39732,12 @@
           <t>2-s2.0-84931072950</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>495</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38887,6 +39953,12 @@
           <t>2-s2.0-84931052136</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>942</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -39110,6 +40182,12 @@
           <t>2-s2.0-84939152897</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>1116</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39325,6 +40403,12 @@
           <t>2-s2.0-84939165389</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>1228</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39539,6 +40623,12 @@
         <is>
           <t>2-s2.0-84939157835</t>
         </is>
+      </c>
+      <c r="BT181" t="n">
+        <v>830</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -39747,6 +40837,12 @@
           <t>2-s2.0-84939151321</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>868</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39969,6 +41065,12 @@
         <is>
           <t>2-s2.0-84939184652</t>
         </is>
+      </c>
+      <c r="BT183" t="n">
+        <v>1143</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -40177,6 +41279,12 @@
           <t>2-s2.0-84939161081</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>776</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40391,6 +41499,12 @@
         <is>
           <t>2-s2.0-84939139597</t>
         </is>
+      </c>
+      <c r="BT185" t="n">
+        <v>390</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -40599,6 +41713,12 @@
           <t>2-s2.0-84939147181</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>1153</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40814,6 +41934,12 @@
           <t>2-s2.0-84939198823</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>1334</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -41029,6 +42155,12 @@
           <t>2-s2.0-84939159857</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>409</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -41252,6 +42384,12 @@
           <t>2-s2.0-84934756778</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>293</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41467,6 +42605,12 @@
           <t>2-s2.0-84939155818</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41682,6 +42826,12 @@
           <t>2-s2.0-84939212012</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>626</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41896,6 +43046,12 @@
         <is>
           <t>2-s2.0-84939193373</t>
         </is>
+      </c>
+      <c r="BT192" t="n">
+        <v>1106</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="193">
@@ -42104,6 +43260,12 @@
           <t>2-s2.0-84939174422</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>617</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42319,6 +43481,12 @@
           <t>2-s2.0-84939177642</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>432</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42534,6 +43702,12 @@
           <t>2-s2.0-84938316721</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>658</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42749,6 +43923,12 @@
           <t>2-s2.0-84929409814</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>759</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42972,6 +44152,12 @@
           <t>2-s2.0-84939152737</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>1070</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -43191,6 +44377,12 @@
           <t>2-s2.0-84939180128</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>3110</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43406,6 +44598,12 @@
           <t>2-s2.0-84931565981</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>742</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43629,6 +44827,12 @@
           <t>2-s2.0-84951278136</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>786</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43844,6 +45048,12 @@
           <t>2-s2.0-84951281186</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>902</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -44059,6 +45269,12 @@
           <t>2-s2.0-84951284305</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>366</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -44273,6 +45489,12 @@
         <is>
           <t>2-s2.0-84951277007</t>
         </is>
+      </c>
+      <c r="BT203" t="n">
+        <v>1160</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -44477,6 +45699,12 @@
           <t>2-s2.0-84951286420</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>1379</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44692,6 +45920,12 @@
           <t>2-s2.0-84951280543</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>738</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44907,6 +46141,12 @@
           <t>2-s2.0-84951273893</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>1192</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -45122,6 +46362,12 @@
           <t>2-s2.0-84951288176</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>542</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45337,6 +46583,12 @@
           <t>2-s2.0-84951269608</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>1092</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45552,6 +46804,12 @@
           <t>2-s2.0-84951283373</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>371</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45775,6 +47033,12 @@
           <t>2-s2.0-84951274478</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>743</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -45986,6 +47250,12 @@
           <t>2-s2.0-84951292299</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>326</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -46201,6 +47471,12 @@
           <t>2-s2.0-84951262668</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>407</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46420,6 +47696,12 @@
           <t>2-s2.0-84936937091</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>895</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46638,6 +47920,12 @@
         <is>
           <t>2-s2.0-84951287149</t>
         </is>
+      </c>
+      <c r="BT214" t="n">
+        <v>662</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="215">
@@ -46846,6 +48134,12 @@
           <t>2-s2.0-84951267472</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>309</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -47069,6 +48363,12 @@
           <t>2-s2.0-84944253335</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>770</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -47288,6 +48588,12 @@
           <t>2-s2.0-84937905461</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>1017</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -47506,6 +48812,12 @@
         <is>
           <t>2-s2.0-84922920126</t>
         </is>
+      </c>
+      <c r="BT218" t="n">
+        <v>1283</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -47714,6 +49026,12 @@
           <t>2-s2.0-84922879856</t>
         </is>
       </c>
+      <c r="BT219" t="n">
+        <v>307</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -47929,6 +49247,12 @@
           <t>2-s2.0-84922941416</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -48144,6 +49468,12 @@
           <t>2-s2.0-84922954607</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>875</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -48359,6 +49689,12 @@
           <t>2-s2.0-84922933675</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>541</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -48574,6 +49910,12 @@
           <t>2-s2.0-84922863861</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>821</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -48789,6 +50131,12 @@
           <t>2-s2.0-84922907990</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>640</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -49004,6 +50352,12 @@
           <t>2-s2.0-84922848705</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>454</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -49219,6 +50573,12 @@
           <t>2-s2.0-84922875208</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>429</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -49434,6 +50794,12 @@
           <t>2-s2.0-84922898798</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>736</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -49649,6 +51015,12 @@
           <t>2-s2.0-84922954723</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>392</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -49864,6 +51236,12 @@
           <t>2-s2.0-84922955766</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>458</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -50079,6 +51457,12 @@
           <t>2-s2.0-84922928302</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>707</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -50302,6 +51686,12 @@
           <t>2-s2.0-84922941246</t>
         </is>
       </c>
+      <c r="BT231" t="n">
+        <v>338</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -50517,6 +51907,12 @@
           <t>2-s2.0-84922883055</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>665</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -50732,6 +52128,12 @@
           <t>2-s2.0-84922954606</t>
         </is>
       </c>
+      <c r="BT233" t="n">
+        <v>473</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -50947,6 +52349,12 @@
           <t>2-s2.0-84922896478</t>
         </is>
       </c>
+      <c r="BT234" t="n">
+        <v>1619</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -51162,6 +52570,12 @@
           <t>2-s2.0-84922937314</t>
         </is>
       </c>
+      <c r="BT235" t="n">
+        <v>316</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -51385,6 +52799,12 @@
           <t>2-s2.0-84922842394</t>
         </is>
       </c>
+      <c r="BT236" t="n">
+        <v>853</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -51604,6 +53024,12 @@
           <t>2-s2.0-84927609400</t>
         </is>
       </c>
+      <c r="BT237" t="n">
+        <v>681</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -51827,6 +53253,12 @@
           <t>2-s2.0-84927644037</t>
         </is>
       </c>
+      <c r="BT238" t="n">
+        <v>1612</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -52038,6 +53470,12 @@
           <t>2-s2.0-84927606587</t>
         </is>
       </c>
+      <c r="BT239" t="n">
+        <v>776</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -52252,6 +53690,12 @@
         <is>
           <t>2-s2.0-84927596574</t>
         </is>
+      </c>
+      <c r="BT240" t="n">
+        <v>1478</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="241">
@@ -52460,6 +53904,12 @@
           <t>2-s2.0-84927642560</t>
         </is>
       </c>
+      <c r="BT241" t="n">
+        <v>1609</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -52674,6 +54124,12 @@
         <is>
           <t>2-s2.0-84927635531</t>
         </is>
+      </c>
+      <c r="BT242" t="n">
+        <v>569</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -52882,6 +54338,12 @@
           <t>2-s2.0-84927662198</t>
         </is>
       </c>
+      <c r="BT243" t="n">
+        <v>366</v>
+      </c>
+      <c r="BU243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -53105,6 +54567,12 @@
           <t>2-s2.0-84927614327</t>
         </is>
       </c>
+      <c r="BT244" t="n">
+        <v>1851</v>
+      </c>
+      <c r="BU244" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -53324,6 +54792,12 @@
           <t>2-s2.0-84924274762</t>
         </is>
       </c>
+      <c r="BT245" t="n">
+        <v>1280</v>
+      </c>
+      <c r="BU245" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -53538,6 +55012,12 @@
         <is>
           <t>2-s2.0-84927600163</t>
         </is>
+      </c>
+      <c r="BT246" t="n">
+        <v>532</v>
+      </c>
+      <c r="BU246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -53746,6 +55226,12 @@
           <t>2-s2.0-84927635523</t>
         </is>
       </c>
+      <c r="BT247" t="n">
+        <v>3255</v>
+      </c>
+      <c r="BU247" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -53961,6 +55447,12 @@
           <t>2-s2.0-84927622646</t>
         </is>
       </c>
+      <c r="BT248" t="n">
+        <v>692</v>
+      </c>
+      <c r="BU248" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -54176,6 +55668,12 @@
           <t>2-s2.0-84927652103</t>
         </is>
       </c>
+      <c r="BT249" t="n">
+        <v>568</v>
+      </c>
+      <c r="BU249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -54387,6 +55885,12 @@
           <t>2-s2.0-84927635203</t>
         </is>
       </c>
+      <c r="BT250" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU250" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -54602,6 +56106,12 @@
           <t>2-s2.0-84927605626</t>
         </is>
       </c>
+      <c r="BT251" t="n">
+        <v>510</v>
+      </c>
+      <c r="BU251" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -54817,6 +56327,12 @@
           <t>2-s2.0-84927654898</t>
         </is>
       </c>
+      <c r="BT252" t="n">
+        <v>754</v>
+      </c>
+      <c r="BU252" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -55031,6 +56547,12 @@
         <is>
           <t>2-s2.0-84927658990</t>
         </is>
+      </c>
+      <c r="BT253" t="n">
+        <v>508</v>
+      </c>
+      <c r="BU253" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="254">
@@ -55239,6 +56761,12 @@
           <t>2-s2.0-84927661637</t>
         </is>
       </c>
+      <c r="BT254" t="n">
+        <v>817</v>
+      </c>
+      <c r="BU254" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -55458,6 +56986,12 @@
           <t>2-s2.0-84927620809</t>
         </is>
       </c>
+      <c r="BT255" t="n">
+        <v>436</v>
+      </c>
+      <c r="BU255" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -55673,6 +57207,12 @@
           <t>2-s2.0-84927610045</t>
         </is>
       </c>
+      <c r="BT256" t="n">
+        <v>444</v>
+      </c>
+      <c r="BU256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -55888,6 +57428,12 @@
           <t>2-s2.0-84927583826</t>
         </is>
       </c>
+      <c r="BT257" t="n">
+        <v>428</v>
+      </c>
+      <c r="BU257" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -56103,6 +57649,12 @@
           <t>2-s2.0-84927656430</t>
         </is>
       </c>
+      <c r="BT258" t="n">
+        <v>848</v>
+      </c>
+      <c r="BU258" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -56318,6 +57870,12 @@
           <t>2-s2.0-84927659923</t>
         </is>
       </c>
+      <c r="BT259" t="n">
+        <v>482</v>
+      </c>
+      <c r="BU259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -56537,6 +58095,12 @@
           <t>2-s2.0-84927631656</t>
         </is>
       </c>
+      <c r="BT260" t="n">
+        <v>775</v>
+      </c>
+      <c r="BU260" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -56752,6 +58316,12 @@
           <t>2-s2.0-84927639385</t>
         </is>
       </c>
+      <c r="BT261" t="n">
+        <v>1335</v>
+      </c>
+      <c r="BU261" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -56967,6 +58537,12 @@
           <t>2-s2.0-84927662255</t>
         </is>
       </c>
+      <c r="BT262" t="n">
+        <v>1228</v>
+      </c>
+      <c r="BU262" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -57186,6 +58762,12 @@
           <t>2-s2.0-84927616211</t>
         </is>
       </c>
+      <c r="BT263" t="n">
+        <v>2926</v>
+      </c>
+      <c r="BU263" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -57401,6 +58983,12 @@
           <t>2-s2.0-84927667399</t>
         </is>
       </c>
+      <c r="BT264" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU264" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -57616,6 +59204,12 @@
           <t>2-s2.0-84927651871</t>
         </is>
       </c>
+      <c r="BT265" t="n">
+        <v>612</v>
+      </c>
+      <c r="BU265" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -57835,6 +59429,12 @@
           <t>2-s2.0-84927602245</t>
         </is>
       </c>
+      <c r="BT266" t="n">
+        <v>1140</v>
+      </c>
+      <c r="BU266" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -58058,6 +59658,12 @@
           <t>2-s2.0-84927614305</t>
         </is>
       </c>
+      <c r="BT267" t="n">
+        <v>1393</v>
+      </c>
+      <c r="BU267" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -58273,6 +59879,12 @@
           <t>2-s2.0-84927628305</t>
         </is>
       </c>
+      <c r="BT268" t="n">
+        <v>674</v>
+      </c>
+      <c r="BU268" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -58488,6 +60100,12 @@
           <t>2-s2.0-84927634188</t>
         </is>
       </c>
+      <c r="BT269" t="n">
+        <v>962</v>
+      </c>
+      <c r="BU269" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -58703,6 +60321,12 @@
           <t>2-s2.0-84927602865</t>
         </is>
       </c>
+      <c r="BT270" t="n">
+        <v>1704</v>
+      </c>
+      <c r="BU270" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -58926,6 +60550,12 @@
           <t>2-s2.0-84927643153</t>
         </is>
       </c>
+      <c r="BT271" t="n">
+        <v>1373</v>
+      </c>
+      <c r="BU271" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -59149,6 +60779,12 @@
           <t>2-s2.0-84927614756</t>
         </is>
       </c>
+      <c r="BT272" t="n">
+        <v>983</v>
+      </c>
+      <c r="BU272" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -59372,6 +61008,12 @@
           <t>2-s2.0-84927600842</t>
         </is>
       </c>
+      <c r="BT273" t="n">
+        <v>535</v>
+      </c>
+      <c r="BU273" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -59586,6 +61228,12 @@
         <is>
           <t>2-s2.0-84927623790</t>
         </is>
+      </c>
+      <c r="BT274" t="n">
+        <v>1319</v>
+      </c>
+      <c r="BU274" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="275">
@@ -59794,6 +61442,12 @@
           <t>2-s2.0-84927667334</t>
         </is>
       </c>
+      <c r="BT275" t="n">
+        <v>612</v>
+      </c>
+      <c r="BU275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -60017,6 +61671,12 @@
           <t>2-s2.0-84927652737</t>
         </is>
       </c>
+      <c r="BT276" t="n">
+        <v>715</v>
+      </c>
+      <c r="BU276" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -60232,6 +61892,12 @@
           <t>2-s2.0-84927617302</t>
         </is>
       </c>
+      <c r="BT277" t="n">
+        <v>1164</v>
+      </c>
+      <c r="BU277" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -60451,6 +62117,12 @@
           <t>2-s2.0-84927653326</t>
         </is>
       </c>
+      <c r="BT278" t="n">
+        <v>777</v>
+      </c>
+      <c r="BU278" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -60674,6 +62346,12 @@
           <t>2-s2.0-84927587149</t>
         </is>
       </c>
+      <c r="BT279" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BU279" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -60889,6 +62567,12 @@
           <t>2-s2.0-84927667615</t>
         </is>
       </c>
+      <c r="BT280" t="n">
+        <v>784</v>
+      </c>
+      <c r="BU280" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
